--- a/UserApi/Templates/templateExportGov.xlsx
+++ b/UserApi/Templates/templateExportGov.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Items">Лист1!$A$4:$R$5</definedName>
+    <definedName name="Items">Лист1!$A$4:$T$5</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Ташкилот номи</t>
   </si>
@@ -64,12 +64,6 @@
 (Истисно билан)</t>
   </si>
   <si>
-    <t>Электрон хизматлаулуги</t>
-  </si>
-  <si>
-    <t>ЯИДХПда хизмат кўрсатиш сифати</t>
-  </si>
-  <si>
     <t>Умумий балл 
 (Истисно билан)</t>
   </si>
@@ -148,6 +142,24 @@
   </si>
   <si>
     <t>{{item.sphereRate2}}</t>
+  </si>
+  <si>
+    <t>Электрон давлат хизматлари улуши</t>
+  </si>
+  <si>
+    <t>Электрон давлат хизматларининг қониқарлилиги</t>
+  </si>
+  <si>
+    <t>Электрон давлат хизматларини кўрсатиш сифати</t>
+  </si>
+  <si>
+    <t>Давлат хизматлардан фойдаланиш имконияти мавжудлиги</t>
+  </si>
+  <si>
+    <t>{{item.fieldRate23}}</t>
+  </si>
+  <si>
+    <t>{{item.fieldRate24}}</t>
   </si>
 </sst>
 </file>
@@ -225,7 +237,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -329,11 +341,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -370,6 +419,12 @@
     <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -388,11 +443,23 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -703,11 +770,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10:D11"/>
+      <selection pane="bottomLeft" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -722,54 +789,57 @@
     <col min="8" max="8" width="16.28515625" style="8" customWidth="1"/>
     <col min="9" max="9" width="16.5703125" style="8" customWidth="1"/>
     <col min="10" max="10" width="15" style="8" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="17" style="8" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" style="8" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" style="8" customWidth="1"/>
-    <col min="15" max="15" width="18" style="8" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="8" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="8" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="8"/>
+    <col min="11" max="11" width="17.5703125" style="8" customWidth="1"/>
+    <col min="12" max="13" width="17.28515625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="17" style="8" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" style="8" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" style="8" customWidth="1"/>
+    <col min="17" max="17" width="18" style="8" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" style="8" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="8" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="8" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="20" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="1" t="s">
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="2"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="16"/>
+    <row r="2" spans="1:20" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
@@ -794,35 +864,41 @@
       <c r="J2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="Q2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="S2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="T2" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16"/>
+      <c r="B3" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
-      <c r="B3" s="10" t="s">
-        <v>21</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -845,91 +921,103 @@
       <c r="I3" s="1">
         <v>2</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="14">
         <v>28</v>
       </c>
-      <c r="K3" s="1">
-        <v>15</v>
-      </c>
-      <c r="L3" s="1">
-        <v>5</v>
-      </c>
-      <c r="M3" s="1">
+      <c r="K3" s="27">
+        <v>8</v>
+      </c>
+      <c r="L3" s="25">
+        <v>8</v>
+      </c>
+      <c r="M3" s="25">
+        <v>4</v>
+      </c>
+      <c r="N3" s="1">
+        <v>6</v>
+      </c>
+      <c r="O3" s="1">
+        <v>26</v>
+      </c>
+      <c r="P3" s="1">
         <v>20</v>
       </c>
-      <c r="N3" s="1">
+      <c r="Q3" s="1">
         <v>20</v>
       </c>
-      <c r="O3" s="1">
+      <c r="R3" s="1">
+        <v>12</v>
+      </c>
+      <c r="S3" s="1">
+        <v>100</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="1">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>100</v>
-      </c>
-      <c r="R3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:20" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
         <v>22</v>
       </c>
+      <c r="B4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F9" s="9"/>
     </row>
   </sheetData>
@@ -937,7 +1025,7 @@
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:J1"/>
-    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="K1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
